--- a/data/trans_camb/P43C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.23152098455993</v>
+        <v>9.793961156235767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.898595665970404</v>
+        <v>2.862796867195014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.04731978261520292</v>
+        <v>-0.3350991536250719</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.0259795468117</v>
+        <v>20.80140760708638</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.59454930726222</v>
+        <v>13.83109835161368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.47625174821735</v>
+        <v>10.09929603192174</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2027950649788712</v>
+        <v>0.197395168035446</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05748481062567475</v>
+        <v>0.05704550337718971</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0009484964861174725</v>
+        <v>-0.008740849131606748</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4757116724075636</v>
+        <v>0.4698158641759187</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3071374862808663</v>
+        <v>0.3074750216452975</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2395243862428975</v>
+        <v>0.2286677787591738</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>13.32355660221836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2459971772771352</v>
+        <v>0.245997177277113</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.172988760240141</v>
+        <v>8.616112919461528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.03939673375065</v>
+        <v>8.832753714947087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.040978500303286</v>
+        <v>-4.075806358740873</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.17950144132741</v>
+        <v>17.25221329403035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.02812947512255</v>
+        <v>17.91767827244719</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.630508091131141</v>
+        <v>4.892144361672248</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.2570796862374963</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.004746546214183242</v>
+        <v>0.004746546214182814</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1521942349843148</v>
+        <v>0.1573094770832035</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1641204934921081</v>
+        <v>0.1629640371773035</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07455854709843895</v>
+        <v>-0.07568311050897905</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3471284707448403</v>
+        <v>0.3529128472679645</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3619316563603829</v>
+        <v>0.3681816690900028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09303619029623339</v>
+        <v>0.09666441167629956</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.462937625593108</v>
+        <v>8.379631551643376</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.404491968978714</v>
+        <v>3.383886195938759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.727426620301863</v>
+        <v>3.225578269214603</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.54638949212375</v>
+        <v>18.7149930875995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.84784193873007</v>
+        <v>13.18520553196448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.75763320931985</v>
+        <v>14.0138831384227</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1465579015347582</v>
+        <v>0.1404163252923251</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0573093579951884</v>
+        <v>0.05973100357836971</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.06249143474259927</v>
+        <v>0.05376875204920834</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.342350758777877</v>
+        <v>0.3506657318434741</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2618676372863645</v>
+        <v>0.2464395274217564</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2741079914397419</v>
+        <v>0.2565569311593652</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>9.046805188834773</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.175766729239783</v>
+        <v>4.175766729239793</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6523711583139434</v>
+        <v>1.284686734093542</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.544320799020015</v>
+        <v>4.658961973478487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.05354832598685717</v>
+        <v>-0.2290344074724533</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.422474705882536</v>
+        <v>9.483882452050372</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.35975229373268</v>
+        <v>13.07819446942851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.55311187369251</v>
+        <v>8.475615370201369</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1552531598496532</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07166076487527732</v>
+        <v>0.07166076487527752</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01015874245394581</v>
+        <v>0.02102648047741261</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07585167437671247</v>
+        <v>0.07788613546145826</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.001023743389564721</v>
+        <v>-0.004015448245304629</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1683043928227613</v>
+        <v>0.1670135037221032</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2424415516705054</v>
+        <v>0.2336847782150943</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1536967985549937</v>
+        <v>0.1509992533706856</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>10.12982314866326</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.125622070014656</v>
+        <v>4.125622070014678</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.092975109721765</v>
+        <v>8.864021570546768</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.649677765579457</v>
+        <v>7.806126068716432</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.667406083853536</v>
+        <v>1.901414407845475</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.78703806696256</v>
+        <v>13.72363058324445</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.48839315476545</v>
+        <v>12.57443810622653</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.427401105745903</v>
+        <v>6.588710533218897</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.1882450504313919</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.0766674721989847</v>
+        <v>0.07666747219898512</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1647568049499387</v>
+        <v>0.1610446486117809</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1368473887847866</v>
+        <v>0.142002989224116</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02834159334627471</v>
+        <v>0.0343890615218664</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2625267875723992</v>
+        <v>0.2636500202367475</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2368472026579822</v>
+        <v>0.2407013276082582</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1203176310351107</v>
+        <v>0.1259029766817781</v>
       </c>
     </row>
     <row r="34">
